--- a/list_excel.xlsx
+++ b/list_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvali\Desktop\myProject\workTelegramm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6066EC8-048A-4A1B-83EA-B9456BC37E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428915B5-891B-4FBD-9182-2D812C0DE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Имя</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>78888888888</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Коробейников</t>
+  </si>
+  <si>
+    <t>Первый Отдел</t>
+  </si>
+  <si>
+    <t>79124060046</t>
   </si>
 </sst>
 </file>
@@ -390,15 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C0627-C931-43FB-B903-05B929CA6BE6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,6 +457,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
